--- a/Instances/G5044355_NonStationary_b2_fe25_en_rk50_ll0_l20_HTrue_c10.xlsx
+++ b/Instances/G5044355_NonStationary_b2_fe25_en_rk50_ll0_l20_HTrue_c10.xlsx
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>9.515005258413462</v>
+        <v>13.18333082932692</v>
       </c>
       <c r="I2" t="n">
         <v>80</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>4.887319711538462</v>
+        <v>4.815955528846154</v>
       </c>
       <c r="I3" t="n">
         <v>140</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>6.928053635817307</v>
+        <v>7.024883563701923</v>
       </c>
       <c r="I4" t="n">
         <v>120</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>17.83062274639423</v>
+        <v>19.77347506009615</v>
       </c>
       <c r="I5" t="n">
         <v>60</v>
@@ -1462,16 +1462,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E6" t="n">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="E9" t="n">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D10" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C12" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E12" t="n">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C13" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.625</v>
+        <v>9.75</v>
       </c>
       <c r="C5" t="n">
-        <v>4.75</v>
+        <v>3.625</v>
       </c>
       <c r="D5" t="n">
-        <v>3.375</v>
+        <v>5.625</v>
       </c>
       <c r="E5" t="n">
-        <v>13.125</v>
+        <v>12.375</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2003,16 +2003,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.3125</v>
+        <v>4.125</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0625</v>
+        <v>6.375</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>10.875</v>
       </c>
       <c r="E6" t="n">
-        <v>8.4375</v>
+        <v>35.8125</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2038,16 +2038,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.9375</v>
+        <v>19.46875</v>
       </c>
       <c r="C7" t="n">
-        <v>6.5625</v>
+        <v>5.25</v>
       </c>
       <c r="D7" t="n">
-        <v>12.6875</v>
+        <v>7.875</v>
       </c>
       <c r="E7" t="n">
-        <v>22.96875</v>
+        <v>18.375</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18.046875</v>
+        <v>16.171875</v>
       </c>
       <c r="C8" t="n">
-        <v>6.09375</v>
+        <v>7.265625</v>
       </c>
       <c r="D8" t="n">
-        <v>12.421875</v>
+        <v>15.703125</v>
       </c>
       <c r="E8" t="n">
-        <v>24.84375</v>
+        <v>21.5625</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2108,16 +2108,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6484375</v>
+        <v>14.2890625</v>
       </c>
       <c r="C9" t="n">
-        <v>6.296875</v>
+        <v>3.6328125</v>
       </c>
       <c r="D9" t="n">
-        <v>11.8671875</v>
+        <v>18.890625</v>
       </c>
       <c r="E9" t="n">
-        <v>20.5859375</v>
+        <v>26.8828125</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2143,16 +2143,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.796875</v>
+        <v>19.1953125</v>
       </c>
       <c r="C10" t="n">
-        <v>9.84375</v>
+        <v>11.3203125</v>
       </c>
       <c r="D10" t="n">
-        <v>8.3671875</v>
+        <v>4.921875</v>
       </c>
       <c r="E10" t="n">
-        <v>32.484375</v>
+        <v>33.9609375</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2178,16 +2178,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.193359375</v>
+        <v>28.27734375</v>
       </c>
       <c r="C11" t="n">
-        <v>2.48046875</v>
+        <v>9.42578125</v>
       </c>
       <c r="D11" t="n">
-        <v>7.44140625</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>21.828125</v>
+        <v>32.7421875</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16.6845703125</v>
+        <v>23.90625</v>
       </c>
       <c r="C12" t="n">
-        <v>7.7197265625</v>
+        <v>5.7275390625</v>
       </c>
       <c r="D12" t="n">
-        <v>18.1787109375</v>
+        <v>10.458984375</v>
       </c>
       <c r="E12" t="n">
-        <v>37.8515625</v>
+        <v>17.6806640625</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18.71337890625</v>
+        <v>15.22021484375</v>
       </c>
       <c r="C13" t="n">
-        <v>10.22998046875</v>
+        <v>4.990234375</v>
       </c>
       <c r="D13" t="n">
-        <v>8.982421875</v>
+        <v>9.73095703125</v>
       </c>
       <c r="E13" t="n">
-        <v>28.943359375</v>
+        <v>30.68994140625</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13.736572265625</v>
+        <v>20.9794921875</v>
       </c>
       <c r="C14" t="n">
-        <v>4.49560546875</v>
+        <v>4.9951171875</v>
       </c>
       <c r="D14" t="n">
-        <v>6.743408203125</v>
+        <v>7.242919921875</v>
       </c>
       <c r="E14" t="n">
-        <v>20.729736328125</v>
+        <v>26.9736328125</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1180</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2180</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4100</v>
+        <v>6060</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/G5044355_NonStationary_b2_fe25_en_rk50_ll0_l20_HTrue_c10.xlsx
+++ b/Instances/G5044355_NonStationary_b2_fe25_en_rk50_ll0_l20_HTrue_c10.xlsx
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>13.18333082932692</v>
+        <v>11.65298227163461</v>
       </c>
       <c r="I2" t="n">
         <v>80</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>4.815955528846154</v>
+        <v>4.913724459134615</v>
       </c>
       <c r="I3" t="n">
         <v>140</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>7.024883563701923</v>
+        <v>10.29052734375</v>
       </c>
       <c r="I4" t="n">
         <v>120</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>19.77347506009615</v>
+        <v>15.36053936298077</v>
       </c>
       <c r="I5" t="n">
         <v>60</v>
@@ -1462,16 +1462,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
+        <v>55</v>
+      </c>
+      <c r="E7" t="n">
         <v>36</v>
-      </c>
-      <c r="E7" t="n">
-        <v>84</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E9" t="n">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C10" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E10" t="n">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E11" t="n">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C12" t="n">
         <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E12" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.75</v>
+        <v>6.875</v>
       </c>
       <c r="C5" t="n">
-        <v>3.625</v>
+        <v>4.875</v>
       </c>
       <c r="D5" t="n">
-        <v>5.625</v>
+        <v>8.125</v>
       </c>
       <c r="E5" t="n">
-        <v>12.375</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2003,16 +2003,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.125</v>
+        <v>10.3125</v>
       </c>
       <c r="C6" t="n">
-        <v>6.375</v>
+        <v>6.75</v>
       </c>
       <c r="D6" t="n">
-        <v>10.875</v>
+        <v>12.5625</v>
       </c>
       <c r="E6" t="n">
-        <v>35.8125</v>
+        <v>9.75</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2038,16 +2038,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.46875</v>
+        <v>20.34375</v>
       </c>
       <c r="C7" t="n">
-        <v>5.25</v>
+        <v>9.1875</v>
       </c>
       <c r="D7" t="n">
+        <v>12.03125</v>
+      </c>
+      <c r="E7" t="n">
         <v>7.875</v>
-      </c>
-      <c r="E7" t="n">
-        <v>18.375</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16.171875</v>
+        <v>5.859375</v>
       </c>
       <c r="C8" t="n">
-        <v>7.265625</v>
+        <v>7.03125</v>
       </c>
       <c r="D8" t="n">
-        <v>15.703125</v>
+        <v>14.0625</v>
       </c>
       <c r="E8" t="n">
-        <v>21.5625</v>
+        <v>31.40625</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2108,16 +2108,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.2890625</v>
+        <v>11.140625</v>
       </c>
       <c r="C9" t="n">
-        <v>3.6328125</v>
+        <v>9.203125</v>
       </c>
       <c r="D9" t="n">
-        <v>18.890625</v>
+        <v>10.4140625</v>
       </c>
       <c r="E9" t="n">
-        <v>26.8828125</v>
+        <v>23.25</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2143,16 +2143,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.1953125</v>
+        <v>15.50390625</v>
       </c>
       <c r="C10" t="n">
-        <v>11.3203125</v>
+        <v>6.15234375</v>
       </c>
       <c r="D10" t="n">
-        <v>4.921875</v>
+        <v>14.2734375</v>
       </c>
       <c r="E10" t="n">
-        <v>33.9609375</v>
+        <v>15.99609375</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2178,16 +2178,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.27734375</v>
+        <v>18.8515625</v>
       </c>
       <c r="C11" t="n">
-        <v>9.42578125</v>
+        <v>4.216796875</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.689453125</v>
       </c>
       <c r="E11" t="n">
-        <v>32.7421875</v>
+        <v>25.796875</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.90625</v>
+        <v>19.1748046875</v>
       </c>
       <c r="C12" t="n">
         <v>5.7275390625</v>
       </c>
       <c r="D12" t="n">
-        <v>10.458984375</v>
+        <v>18.1787109375</v>
       </c>
       <c r="E12" t="n">
-        <v>17.6806640625</v>
+        <v>14.6923828125</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15.22021484375</v>
+        <v>30.939453125</v>
       </c>
       <c r="C13" t="n">
-        <v>4.990234375</v>
+        <v>4.74072265625</v>
       </c>
       <c r="D13" t="n">
-        <v>9.73095703125</v>
+        <v>24.951171875</v>
       </c>
       <c r="E13" t="n">
-        <v>30.68994140625</v>
+        <v>27.4462890625</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20.9794921875</v>
+        <v>12.48779296875</v>
       </c>
       <c r="C14" t="n">
-        <v>4.9951171875</v>
+        <v>5.994140625</v>
       </c>
       <c r="D14" t="n">
-        <v>7.242919921875</v>
+        <v>11.48876953125</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9736328125</v>
+        <v>26.47412109375</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1730</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3140</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6060</v>
+        <v>6210</v>
       </c>
     </row>
   </sheetData>
